--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.022221.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.022221.xlsx_with_dialog_acts.xlsx
@@ -585,12 +585,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1083,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1425,12 +1425,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1729,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2759,12 +2759,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2797,12 +2797,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3147,12 +3147,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3379,12 +3379,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3417,12 +3417,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3455,12 +3455,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3611,12 +3611,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3649,12 +3649,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3687,12 +3687,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3877,12 +3877,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3953,12 +3953,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4219,12 +4219,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4371,12 +4371,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4527,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4641,12 +4641,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4945,12 +4945,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4983,12 +4983,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5173,12 +5173,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5211,12 +5211,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5325,12 +5325,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5477,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5781,12 +5781,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -5933,12 +5933,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6009,12 +6009,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6047,12 +6047,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6161,12 +6161,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6199,12 +6199,12 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6351,12 +6351,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6427,12 +6427,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6465,12 +6465,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6503,12 +6503,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6697,12 +6697,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6815,12 +6815,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7005,12 +7005,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7161,12 +7161,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7199,12 +7199,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7275,12 +7275,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7469,12 +7469,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7773,12 +7773,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8043,12 +8043,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8195,12 +8195,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8233,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8309,12 +8309,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8347,12 +8347,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8651,12 +8651,12 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8765,12 +8765,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8841,12 +8841,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8993,12 +8993,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9069,12 +9069,12 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9373,12 +9373,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9951,12 +9951,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10027,12 +10027,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10065,12 +10065,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10867,12 +10867,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11057,12 +11057,12 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11095,12 +11095,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11137,12 +11137,12 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11175,12 +11175,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11403,12 +11403,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11711,12 +11711,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12099,12 +12099,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12369,12 +12369,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12525,12 +12525,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12639,12 +12639,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12791,12 +12791,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12829,12 +12829,12 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13095,12 +13095,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13327,12 +13327,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13707,12 +13707,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14049,12 +14049,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14277,12 +14277,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14315,12 +14315,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14999,12 +14999,12 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15037,12 +15037,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15113,12 +15113,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15189,12 +15189,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15231,12 +15231,12 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15269,12 +15269,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15383,12 +15383,12 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15459,12 +15459,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15763,12 +15763,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15801,12 +15801,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15881,12 +15881,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15957,12 +15957,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15999,12 +15999,12 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16113,12 +16113,12 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16379,12 +16379,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16493,12 +16493,12 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16611,12 +16611,12 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16649,12 +16649,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17105,12 +17105,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17299,12 +17299,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17413,12 +17413,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17455,12 +17455,12 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17797,12 +17797,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17835,12 +17835,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -18599,12 +18599,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19017,12 +19017,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19131,12 +19131,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19359,12 +19359,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19435,12 +19435,12 @@
       <c r="H497" t="inlineStr"/>
       <c r="I497" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
